--- a/exports/xlsx/terms_definition_3.xlsx
+++ b/exports/xlsx/terms_definition_3.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,37 +422,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>synonyms</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>definition</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>examples</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>sources</t>
         </is>
@@ -494,42 +482,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Instrument Data</t>
+          <t>Verification</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Data produced and transmitted by the science and engineering sensors of an instrument, and, in the spacecraft environment, any additional data packaged with the instrument’s sensor data by virtue of services provided</t>
+          <t>Verification serves as a means to evaluate the reliability of the Data in the absence of a Reference dataset, allowing for an assessment of its standalone performance. It involves confirming the consistency and internal coherence of the Data without direct comparison to external Reference sources.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
+          <t>- KCEO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Auxiliary Data</t>
+          <t>Instrument Data</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The Data required for instrument processing, which does not originate in the instrument itself or from the satellite. Some auxiliary Data will be generated in the ground segment, whilst other Data will be provided from external sources.</t>
+          <t>Data produced and transmitted by the science and engineering sensors of an instrument, and, in the spacecraft environment, any additional data packaged with the instrument’s sensor data by virtue of services provided</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>- CEOS-ARD PFS template 20220302</t>
+          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
         </is>
       </c>
     </row>
@@ -561,21 +549,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Verification</t>
+          <t>Auxiliary Data</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Verification serves as a means to evaluate the reliability of the Data in the absence of a Reference dataset, allowing for an assessment of its standalone performance. It involves confirming the consistency and internal coherence of the Data without direct comparison to external Reference sources.</t>
+          <t>The Data required for instrument processing, which does not originate in the instrument itself or from the satellite. Some auxiliary Data will be generated in the ground segment, whilst other Data will be provided from external sources.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>- KCEO</t>
+          <t>- CEOS-ARD PFS template 20220302</t>
         </is>
       </c>
     </row>
